--- a/Data/Data collected/Questionnaires_lables_old/2PATAS_2025.xlsx
+++ b/Data/Data collected/Questionnaires_lables_old/2PATAS_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/תואר פסיכולוגיה/תואר שני/תואר שני קלינית מחקרית/שיעורים - קלינית/מעבדה/תזה/Data/Data Collected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/Github/Creativity-in-ADHD/Data/Data collected/Questionnaires_lables_old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0005D2-9BBE-B340-9AF1-02AA782F0235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7933F-4C68-334A-B803-7075E3AD6A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="317">
   <si>
     <t>StartDate</t>
   </si>
@@ -971,6 +971,9 @@
   </si>
   <si>
     <t>raK5i3</t>
+  </si>
+  <si>
+    <t>vQtQiu</t>
   </si>
 </sst>
 </file>
@@ -1354,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A85"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6972,8 +6975,8 @@
       <c r="AG54">
         <v>15</v>
       </c>
-      <c r="AH54" s="2" t="s">
-        <v>79</v>
+      <c r="AH54" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="48" x14ac:dyDescent="0.2">
@@ -8844,8 +8847,8 @@
       <c r="AG72">
         <v>10</v>
       </c>
-      <c r="AH72" s="2" t="s">
-        <v>79</v>
+      <c r="AH72" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="48" x14ac:dyDescent="0.2">
@@ -10204,7 +10207,7 @@
   <autoFilter ref="A2:AH86" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C85 D1:D85 G1:G85 I1:I85 J1:J85 K1:K85 L1:L85 M1:M85 P1:P85 Q1:Q85 R1:R85 S1:S85 T1:T85 U1:U85 V1:V85 W1:W85 X1:X85 Y1:Y85 Z1:Z85 AA1:AA85 AB1:AB85 AC1:AC85 AD1:AD85 AE1:AE85 AF1:AF85 AH1:AH85" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C85 D1:D85 G1:G85 I1:I85 J1:J85 K1:K85 L1:L85 M1:M85 P1:P85 Q1:Q85 R1:R85 S1:S85 T1:T85 U1:U85 V1:V85 W1:W85 X1:X85 Y1:Y85 Z1:Z85 AA1:AA85 AB1:AB85 AC1:AC85 AD1:AD85 AE1:AE85 AF1:AF85 AH1:AH53 AH55:AH71 AH73:AH85" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>